--- a/output.xlsx
+++ b/output.xlsx
@@ -950,7 +950,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Задолженность по кредиту Самойлова Т. С. 3330/06П., списанная за счет резервов на возможные потер и</t>
+          <t>Задолженность по кредиту Голубева Ж.А. 3330/06П., списанная за счет резервов на возможные потери</t>
         </is>
       </c>
     </row>
